--- a/normativa/Anexos/L01T03C08/L01T03C08A06.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A06.xlsx
@@ -107,29 +107,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Nota:  La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
     </r>
     <r>
@@ -171,6 +148,39 @@
   </si>
   <si>
     <t>1. Departamento y Municipio:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -392,6 +402,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -402,13 +415,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -422,20 +438,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +507,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -785,11 +795,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AL3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3.7109375" style="1"/>
   </cols>
@@ -817,88 +827,88 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
     </row>
     <row r="3" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -923,46 +933,46 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="34"/>
     </row>
     <row r="6" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1005,88 +1015,88 @@
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="29"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="38"/>
     </row>
     <row r="8" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="29"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="38"/>
     </row>
     <row r="9" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -1171,88 +1181,88 @@
       <c r="AL10" s="15"/>
     </row>
     <row r="11" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="29"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="38"/>
     </row>
     <row r="12" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="27"/>
     </row>
     <row r="13" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -1337,260 +1347,260 @@
       <c r="AL14" s="19"/>
     </row>
     <row r="15" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>20</v>
+      <c r="A15" s="25" t="s">
+        <v>19</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="27"/>
     </row>
     <row r="16" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="27"/>
     </row>
     <row r="17" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="27"/>
     </row>
     <row r="18" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="27"/>
     </row>
     <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="27"/>
     </row>
     <row r="20" spans="1:38" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="37"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="30"/>
     </row>
     <row r="21" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1713,130 +1723,130 @@
       <c r="AL23" s="19"/>
     </row>
     <row r="24" spans="1:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="27"/>
     </row>
     <row r="25" spans="1:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="27"/>
     </row>
     <row r="26" spans="1:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="27"/>
     </row>
     <row r="27" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -2239,33 +2249,33 @@
       <c r="AL36" s="7"/>
     </row>
     <row r="37" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
@@ -2359,46 +2369,46 @@
       <c r="AL39" s="7"/>
     </row>
     <row r="40" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>19</v>
+      <c r="A40" s="24" t="s">
+        <v>18</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="24"/>
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="24"/>
     </row>
     <row r="41" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -2564,6 +2574,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:AL18"/>
+    <mergeCell ref="A11:AL11"/>
+    <mergeCell ref="A12:AL12"/>
+    <mergeCell ref="A15:AL15"/>
+    <mergeCell ref="A16:AL16"/>
+    <mergeCell ref="A17:AL17"/>
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="A3:AL3"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="A8:AL8"/>
     <mergeCell ref="A40:AL40"/>
     <mergeCell ref="A19:AL19"/>
     <mergeCell ref="A20:AL20"/>
@@ -2571,17 +2592,6 @@
     <mergeCell ref="A25:AL25"/>
     <mergeCell ref="A26:AL26"/>
     <mergeCell ref="A37:AA37"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="A3:AL3"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A18:AL18"/>
-    <mergeCell ref="A11:AL11"/>
-    <mergeCell ref="A12:AL12"/>
-    <mergeCell ref="A15:AL15"/>
-    <mergeCell ref="A16:AL16"/>
-    <mergeCell ref="A17:AL17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2590,7 +2600,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/472/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 6
